--- a/tests/5_predictions_PRIX_EXP_POMME_FUJI_FRANCE_201_270G_CAT_I_PLATEAU_1RG.xlsx
+++ b/tests/5_predictions_PRIX_EXP_POMME_FUJI_FRANCE_201_270G_CAT_I_PLATEAU_1RG.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,16 +467,22 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45509</v>
+        <v>45656</v>
       </c>
       <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+      <c r="C2" t="n">
+        <v>1.399999976158142</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.399999976158142</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.399999976158142</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45516</v>
+        <v>45509</v>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
@@ -485,7 +491,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45523</v>
+        <v>45516</v>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
@@ -494,7 +500,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45530</v>
+        <v>45523</v>
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
@@ -503,7 +509,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45537</v>
+        <v>45530</v>
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
@@ -512,7 +518,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45544</v>
+        <v>45537</v>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
@@ -521,7 +527,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45551</v>
+        <v>45544</v>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
@@ -530,7 +536,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45558</v>
+        <v>45551</v>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
@@ -539,7 +545,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45565</v>
+        <v>45558</v>
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
@@ -548,7 +554,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45572</v>
+        <v>45565</v>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
@@ -557,7 +563,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45579</v>
+        <v>45572</v>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
@@ -566,7 +572,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45586</v>
+        <v>45579</v>
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
@@ -575,7 +581,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45593</v>
+        <v>45586</v>
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
@@ -584,7 +590,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45600</v>
+        <v>45593</v>
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
@@ -593,7 +599,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45607</v>
+        <v>45600</v>
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
@@ -602,38 +608,32 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45614</v>
+        <v>45607</v>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="n">
-        <v>1.389999985694885</v>
-      </c>
+      <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45621</v>
+        <v>45614</v>
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="n">
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="n">
         <v>1.389999985694885</v>
-      </c>
-      <c r="E18" t="n">
-        <v>1.379999995231628</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45628</v>
+        <v>45621</v>
       </c>
       <c r="B19" t="inlineStr"/>
-      <c r="C19" t="n">
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="n">
         <v>1.389999985694885</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1.379999995231628</v>
       </c>
       <c r="E19" t="n">
         <v>1.379999995231628</v>
@@ -641,85 +641,134 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45635</v>
-      </c>
-      <c r="B20" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="n">
         <v>1.389999985694885</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1.379999995231628</v>
       </c>
       <c r="D20" t="n">
         <v>1.379999995231628</v>
       </c>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>1.379999995231628</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45642</v>
+        <v>45635</v>
       </c>
       <c r="B21" t="n">
-        <v>1.379999995231628</v>
+        <v>1.389999985694885</v>
       </c>
       <c r="C21" t="n">
         <v>1.379999995231628</v>
       </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="n">
-        <v>1.350000023841858</v>
-      </c>
+      <c r="D21" t="n">
+        <v>1.379999995231628</v>
+      </c>
+      <c r="E21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45649</v>
+        <v>45642</v>
       </c>
       <c r="B22" t="n">
         <v>1.379999995231628</v>
       </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="n">
+      <c r="C22" t="n">
+        <v>1.379999995231628</v>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="n">
         <v>1.350000023841858</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1.289999961853027</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45663</v>
-      </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1.379999995231628</v>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="n">
         <v>1.350000023841858</v>
       </c>
-      <c r="D23" t="n">
+      <c r="E23" t="n">
         <v>1.289999961853027</v>
       </c>
-      <c r="E23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45670</v>
-      </c>
-      <c r="B24" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="n">
         <v>1.350000023841858</v>
       </c>
-      <c r="C24" t="n">
+      <c r="D24" t="n">
         <v>1.289999961853027</v>
       </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>1.330000042915344</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1.350000023841858</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.289999961853027</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1.330000042915344</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1.330000042915344</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
         <v>45677</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B26" t="n">
         <v>1.289999961853027</v>
       </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
+      <c r="C26" t="n">
+        <v>1.330000042915344</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1.330000042915344</v>
+      </c>
+      <c r="E26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1.330000042915344</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.330000042915344</v>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1.330000042915344</v>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -732,7 +781,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -764,338 +813,380 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45509</v>
+        <v>45656</v>
       </c>
       <c r="B2" t="n">
-        <v>1.485721707344055</v>
+        <v>1.447052717208862</v>
       </c>
       <c r="C2" t="n">
-        <v>1.380150198936462</v>
+        <v>1.416882038116455</v>
       </c>
       <c r="D2" t="n">
-        <v>1.405782580375671</v>
+        <v>1.40171492099762</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45516</v>
+        <v>45509</v>
       </c>
       <c r="B3" t="n">
-        <v>1.49032986164093</v>
+        <v>1.390498161315918</v>
       </c>
       <c r="C3" t="n">
-        <v>1.37824547290802</v>
+        <v>1.385970592498779</v>
       </c>
       <c r="D3" t="n">
-        <v>1.403928160667419</v>
+        <v>1.438660025596619</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45523</v>
+        <v>45516</v>
       </c>
       <c r="B4" t="n">
-        <v>1.487324833869934</v>
+        <v>1.440800189971924</v>
       </c>
       <c r="C4" t="n">
-        <v>1.371459603309631</v>
+        <v>1.411020278930664</v>
       </c>
       <c r="D4" t="n">
-        <v>1.404430150985718</v>
+        <v>1.471516370773315</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45530</v>
+        <v>45523</v>
       </c>
       <c r="B5" t="n">
-        <v>1.499153971672058</v>
+        <v>1.425227284431458</v>
       </c>
       <c r="C5" t="n">
-        <v>1.389813780784607</v>
+        <v>1.412687540054321</v>
       </c>
       <c r="D5" t="n">
-        <v>1.398555040359497</v>
+        <v>1.480222940444946</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45537</v>
+        <v>45530</v>
       </c>
       <c r="B6" t="n">
-        <v>1.497818112373352</v>
+        <v>1.44674015045166</v>
       </c>
       <c r="C6" t="n">
-        <v>1.376624941825867</v>
+        <v>1.43841290473938</v>
       </c>
       <c r="D6" t="n">
-        <v>1.418534517288208</v>
+        <v>1.516001105308533</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45544</v>
+        <v>45537</v>
       </c>
       <c r="B7" t="n">
-        <v>1.496008157730103</v>
+        <v>1.445915579795837</v>
       </c>
       <c r="C7" t="n">
-        <v>1.377407908439636</v>
+        <v>1.437572002410889</v>
       </c>
       <c r="D7" t="n">
-        <v>1.417410254478455</v>
+        <v>1.515437722206116</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45551</v>
+        <v>45544</v>
       </c>
       <c r="B8" t="n">
-        <v>1.499590039253235</v>
+        <v>1.467907547950745</v>
       </c>
       <c r="C8" t="n">
-        <v>1.385821461677551</v>
+        <v>1.496652841567993</v>
       </c>
       <c r="D8" t="n">
-        <v>1.398581504821777</v>
+        <v>1.470625758171082</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45558</v>
+        <v>45551</v>
       </c>
       <c r="B9" t="n">
-        <v>1.505496859550476</v>
+        <v>1.468287229537964</v>
       </c>
       <c r="C9" t="n">
-        <v>1.388286471366882</v>
+        <v>1.500070333480835</v>
       </c>
       <c r="D9" t="n">
-        <v>1.417014122009277</v>
+        <v>1.46934449672699</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45565</v>
+        <v>45558</v>
       </c>
       <c r="B10" t="n">
-        <v>1.506605386734009</v>
+        <v>1.514029741287231</v>
       </c>
       <c r="C10" t="n">
-        <v>1.380662322044373</v>
+        <v>1.488202571868896</v>
       </c>
       <c r="D10" t="n">
-        <v>1.416777491569519</v>
+        <v>1.499937772750854</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45572</v>
+        <v>45565</v>
       </c>
       <c r="B11" t="n">
-        <v>1.463445782661438</v>
+        <v>1.513739228248596</v>
       </c>
       <c r="C11" t="n">
-        <v>1.336344599723816</v>
+        <v>1.469724655151367</v>
       </c>
       <c r="D11" t="n">
-        <v>1.373345732688904</v>
+        <v>1.493277668952942</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45579</v>
+        <v>45572</v>
       </c>
       <c r="B12" t="n">
-        <v>1.450167655944824</v>
+        <v>1.475192666053772</v>
       </c>
       <c r="C12" t="n">
-        <v>1.380267977714539</v>
+        <v>1.435646772384644</v>
       </c>
       <c r="D12" t="n">
-        <v>1.336562991142273</v>
+        <v>1.419822812080383</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45586</v>
+        <v>45579</v>
       </c>
       <c r="B13" t="n">
-        <v>1.498538970947266</v>
+        <v>1.474730849266052</v>
       </c>
       <c r="C13" t="n">
-        <v>1.332435250282288</v>
+        <v>1.426992416381836</v>
       </c>
       <c r="D13" t="n">
-        <v>1.392149806022644</v>
+        <v>1.378505349159241</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45593</v>
+        <v>45586</v>
       </c>
       <c r="B14" t="n">
-        <v>1.425146341323853</v>
+        <v>1.508002042770386</v>
       </c>
       <c r="C14" t="n">
-        <v>1.380512833595276</v>
+        <v>1.423498153686523</v>
       </c>
       <c r="D14" t="n">
-        <v>1.409615516662598</v>
+        <v>1.406075239181519</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45600</v>
+        <v>45593</v>
       </c>
       <c r="B15" t="n">
-        <v>1.397944569587708</v>
+        <v>1.474480867385864</v>
       </c>
       <c r="C15" t="n">
-        <v>1.397371888160706</v>
+        <v>1.461924076080322</v>
       </c>
       <c r="D15" t="n">
-        <v>1.410184741020203</v>
+        <v>1.440197467803955</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45607</v>
+        <v>45600</v>
       </c>
       <c r="B16" t="n">
-        <v>1.393218994140625</v>
+        <v>1.421295881271362</v>
       </c>
       <c r="C16" t="n">
-        <v>1.409687161445618</v>
+        <v>1.401614785194397</v>
       </c>
       <c r="D16" t="n">
-        <v>1.389589548110962</v>
+        <v>1.416647672653198</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45614</v>
+        <v>45607</v>
       </c>
       <c r="B17" t="n">
-        <v>1.40399432182312</v>
+        <v>1.436525106430054</v>
       </c>
       <c r="C17" t="n">
-        <v>1.410927176475525</v>
+        <v>1.431747913360596</v>
       </c>
       <c r="D17" t="n">
-        <v>1.352314472198486</v>
+        <v>1.354736924171448</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45621</v>
+        <v>45614</v>
       </c>
       <c r="B18" t="n">
-        <v>1.387579560279846</v>
+        <v>1.412673115730286</v>
       </c>
       <c r="C18" t="n">
-        <v>1.398869156837463</v>
+        <v>1.404504299163818</v>
       </c>
       <c r="D18" t="n">
-        <v>1.367346525192261</v>
+        <v>1.366022825241089</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45628</v>
+        <v>45621</v>
       </c>
       <c r="B19" t="n">
-        <v>1.450774550437927</v>
+        <v>1.439152121543884</v>
       </c>
       <c r="C19" t="n">
-        <v>1.403240561485291</v>
+        <v>1.420448780059814</v>
       </c>
       <c r="D19" t="n">
-        <v>1.383540511131287</v>
+        <v>1.365786194801331</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45635</v>
+        <v>45628</v>
       </c>
       <c r="B20" t="n">
-        <v>1.426669239997864</v>
+        <v>1.44266664981842</v>
       </c>
       <c r="C20" t="n">
-        <v>1.404378533363342</v>
+        <v>1.432132244110107</v>
       </c>
       <c r="D20" t="n">
-        <v>1.408461928367615</v>
+        <v>1.384227871894836</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45642</v>
+        <v>45635</v>
       </c>
       <c r="B21" t="n">
-        <v>1.400672435760498</v>
+        <v>1.415783762931824</v>
       </c>
       <c r="C21" t="n">
-        <v>1.392749667167664</v>
+        <v>1.416253447532654</v>
       </c>
       <c r="D21" t="n">
-        <v>1.383616328239441</v>
+        <v>1.413595199584961</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45649</v>
+        <v>45642</v>
       </c>
       <c r="B22" t="n">
-        <v>1.402754545211792</v>
+        <v>1.452959060668945</v>
       </c>
       <c r="C22" t="n">
-        <v>1.400105595588684</v>
+        <v>1.414816737174988</v>
       </c>
       <c r="D22" t="n">
-        <v>1.404625535011292</v>
+        <v>1.384611248970032</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45663</v>
+        <v>45649</v>
       </c>
       <c r="B23" t="n">
-        <v>1.411522746086121</v>
+        <v>1.470238327980042</v>
       </c>
       <c r="C23" t="n">
-        <v>1.38407289981842</v>
+        <v>1.430764436721802</v>
       </c>
       <c r="D23" t="n">
-        <v>1.350304245948792</v>
+        <v>1.422615766525269</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45670</v>
+        <v>45663</v>
       </c>
       <c r="B24" t="n">
-        <v>1.410513758659363</v>
+        <v>1.43041205406189</v>
       </c>
       <c r="C24" t="n">
-        <v>1.394992232322693</v>
+        <v>1.432321786880493</v>
       </c>
       <c r="D24" t="n">
-        <v>1.375168681144714</v>
+        <v>1.387603163719177</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1.430816054344177</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.433813691139221</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1.381971478462219</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
         <v>45677</v>
       </c>
-      <c r="B25" t="n">
-        <v>1.334642648696899</v>
-      </c>
-      <c r="C25" t="n">
-        <v>1.349376082420349</v>
-      </c>
-      <c r="D25" t="n">
-        <v>1.407232880592346</v>
+      <c r="B26" t="n">
+        <v>1.364751100540161</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1.397512078285217</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1.371948003768921</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1.419710516929626</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.439442276954651</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1.379173755645752</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1.400453805923462</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1.415239691734314</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1.400419473648071</v>
       </c>
     </row>
   </sheetData>

--- a/tests/5_predictions_PRIX_EXP_POMME_FUJI_FRANCE_201_270G_CAT_I_PLATEAU_1RG.xlsx
+++ b/tests/5_predictions_PRIX_EXP_POMME_FUJI_FRANCE_201_270G_CAT_I_PLATEAU_1RG.xlsx
@@ -451,17 +451,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>PRIX EXP POMME FUJI FRANCE 201/270G CAT.I PLATEAU 1RG_S+1</t>
+          <t>PRIX EXP POMME FUJI FRANCE 201/270G CAT.I PLATEAU 1RG_S+1_class</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>PRIX EXP POMME FUJI FRANCE 201/270G CAT.I PLATEAU 1RG_S+2</t>
+          <t>PRIX EXP POMME FUJI FRANCE 201/270G CAT.I PLATEAU 1RG_S+2_class</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>PRIX EXP POMME FUJI FRANCE 201/270G CAT.I PLATEAU 1RG_S+3</t>
+          <t>PRIX EXP POMME FUJI FRANCE 201/270G CAT.I PLATEAU 1RG_S+3_class</t>
         </is>
       </c>
     </row>
@@ -471,13 +471,13 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>1.399999976158142</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>1.399999976158142</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>1.399999976158142</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -485,145 +485,239 @@
         <v>45509</v>
       </c>
       <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
         <v>45516</v>
       </c>
       <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
         <v>45523</v>
       </c>
       <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
         <v>45530</v>
       </c>
       <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
         <v>45537</v>
       </c>
       <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
         <v>45544</v>
       </c>
       <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
         <v>45551</v>
       </c>
       <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
         <v>45558</v>
       </c>
       <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
+      <c r="C10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
         <v>45565</v>
       </c>
       <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
+      <c r="C11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
         <v>45572</v>
       </c>
       <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
+      <c r="C12" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
         <v>45579</v>
       </c>
       <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
         <v>45586</v>
       </c>
       <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
+      <c r="C14" t="n">
+        <v>2</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
         <v>45593</v>
       </c>
       <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
+      <c r="C15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
         <v>45600</v>
       </c>
       <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
+      <c r="C16" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
         <v>45607</v>
       </c>
       <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
+      <c r="C17" t="n">
+        <v>2</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
         <v>45614</v>
       </c>
       <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
+      <c r="C18" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2</v>
+      </c>
       <c r="E18" t="n">
-        <v>1.389999985694885</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -631,12 +725,14 @@
         <v>45621</v>
       </c>
       <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
+      <c r="C19" t="n">
+        <v>2</v>
+      </c>
       <c r="D19" t="n">
-        <v>1.389999985694885</v>
+        <v>2</v>
       </c>
       <c r="E19" t="n">
-        <v>1.379999995231628</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -645,13 +741,13 @@
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="n">
-        <v>1.389999985694885</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>1.379999995231628</v>
+        <v>2</v>
       </c>
       <c r="E20" t="n">
-        <v>1.379999995231628</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -662,12 +758,14 @@
         <v>1.389999985694885</v>
       </c>
       <c r="C21" t="n">
-        <v>1.379999995231628</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>1.379999995231628</v>
-      </c>
-      <c r="E21" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -677,11 +775,13 @@
         <v>1.379999995231628</v>
       </c>
       <c r="C22" t="n">
-        <v>1.379999995231628</v>
-      </c>
-      <c r="D22" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2</v>
+      </c>
       <c r="E22" t="n">
-        <v>1.350000023841858</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -691,12 +791,14 @@
       <c r="B23" t="n">
         <v>1.379999995231628</v>
       </c>
-      <c r="C23" t="inlineStr"/>
+      <c r="C23" t="n">
+        <v>2</v>
+      </c>
       <c r="D23" t="n">
-        <v>1.350000023841858</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>1.289999961853027</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -705,13 +807,13 @@
       </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="n">
-        <v>1.350000023841858</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>1.289999961853027</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>1.330000042915344</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
@@ -722,13 +824,13 @@
         <v>1.350000023841858</v>
       </c>
       <c r="C25" t="n">
-        <v>1.289999961853027</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>1.330000042915344</v>
+        <v>4</v>
       </c>
       <c r="E25" t="n">
-        <v>1.330000042915344</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -739,12 +841,14 @@
         <v>1.289999961853027</v>
       </c>
       <c r="C26" t="n">
-        <v>1.330000042915344</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
-        <v>1.330000042915344</v>
-      </c>
-      <c r="E26" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -754,10 +858,14 @@
         <v>1.330000042915344</v>
       </c>
       <c r="C27" t="n">
-        <v>1.330000042915344</v>
-      </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -766,9 +874,15 @@
       <c r="B28" t="n">
         <v>1.330000042915344</v>
       </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
+      <c r="C28" t="n">
+        <v>2</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -816,13 +930,13 @@
         <v>45656</v>
       </c>
       <c r="B2" t="n">
-        <v>1.447052717208862</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1.416882038116455</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>1.40171492099762</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -830,13 +944,13 @@
         <v>45509</v>
       </c>
       <c r="B3" t="n">
-        <v>1.390498161315918</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1.385970592498779</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.438660025596619</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -844,13 +958,13 @@
         <v>45516</v>
       </c>
       <c r="B4" t="n">
-        <v>1.440800189971924</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1.411020278930664</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1.471516370773315</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -858,13 +972,13 @@
         <v>45523</v>
       </c>
       <c r="B5" t="n">
-        <v>1.425227284431458</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1.412687540054321</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1.480222940444946</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -872,13 +986,13 @@
         <v>45530</v>
       </c>
       <c r="B6" t="n">
-        <v>1.44674015045166</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>1.43841290473938</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>1.516001105308533</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -886,13 +1000,13 @@
         <v>45537</v>
       </c>
       <c r="B7" t="n">
-        <v>1.445915579795837</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>1.437572002410889</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1.515437722206116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -900,13 +1014,13 @@
         <v>45544</v>
       </c>
       <c r="B8" t="n">
-        <v>1.467907547950745</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>1.496652841567993</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>1.470625758171082</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -914,13 +1028,13 @@
         <v>45551</v>
       </c>
       <c r="B9" t="n">
-        <v>1.468287229537964</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>1.500070333480835</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>1.46934449672699</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -928,13 +1042,13 @@
         <v>45558</v>
       </c>
       <c r="B10" t="n">
-        <v>1.514029741287231</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>1.488202571868896</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1.499937772750854</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -942,13 +1056,13 @@
         <v>45565</v>
       </c>
       <c r="B11" t="n">
-        <v>1.513739228248596</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1.469724655151367</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1.493277668952942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -956,13 +1070,13 @@
         <v>45572</v>
       </c>
       <c r="B12" t="n">
-        <v>1.475192666053772</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>1.435646772384644</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>1.419822812080383</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -970,13 +1084,13 @@
         <v>45579</v>
       </c>
       <c r="B13" t="n">
-        <v>1.474730849266052</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1.426992416381836</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1.378505349159241</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -984,13 +1098,13 @@
         <v>45586</v>
       </c>
       <c r="B14" t="n">
-        <v>1.508002042770386</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1.423498153686523</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1.406075239181519</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -998,13 +1112,13 @@
         <v>45593</v>
       </c>
       <c r="B15" t="n">
-        <v>1.474480867385864</v>
+        <v>-2</v>
       </c>
       <c r="C15" t="n">
-        <v>1.461924076080322</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>1.440197467803955</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1012,13 +1126,13 @@
         <v>45600</v>
       </c>
       <c r="B16" t="n">
-        <v>1.421295881271362</v>
+        <v>-2</v>
       </c>
       <c r="C16" t="n">
-        <v>1.401614785194397</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>1.416647672653198</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17">
@@ -1026,13 +1140,13 @@
         <v>45607</v>
       </c>
       <c r="B17" t="n">
-        <v>1.436525106430054</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1.431747913360596</v>
+        <v>-1</v>
       </c>
       <c r="D17" t="n">
-        <v>1.354736924171448</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1040,13 +1154,13 @@
         <v>45614</v>
       </c>
       <c r="B18" t="n">
-        <v>1.412673115730286</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>1.404504299163818</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>1.366022825241089</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1054,13 +1168,13 @@
         <v>45621</v>
       </c>
       <c r="B19" t="n">
-        <v>1.439152121543884</v>
+        <v>-1</v>
       </c>
       <c r="C19" t="n">
-        <v>1.420448780059814</v>
+        <v>-1</v>
       </c>
       <c r="D19" t="n">
-        <v>1.365786194801331</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1068,13 +1182,13 @@
         <v>45628</v>
       </c>
       <c r="B20" t="n">
-        <v>1.44266664981842</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>1.432132244110107</v>
+        <v>-1</v>
       </c>
       <c r="D20" t="n">
-        <v>1.384227871894836</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1082,13 +1196,13 @@
         <v>45635</v>
       </c>
       <c r="B21" t="n">
-        <v>1.415783762931824</v>
+        <v>-1</v>
       </c>
       <c r="C21" t="n">
-        <v>1.416253447532654</v>
+        <v>-1</v>
       </c>
       <c r="D21" t="n">
-        <v>1.413595199584961</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1096,13 +1210,13 @@
         <v>45642</v>
       </c>
       <c r="B22" t="n">
-        <v>1.452959060668945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>1.414816737174988</v>
+        <v>-1</v>
       </c>
       <c r="D22" t="n">
-        <v>1.384611248970032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1110,13 +1224,13 @@
         <v>45649</v>
       </c>
       <c r="B23" t="n">
-        <v>1.470238327980042</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>1.430764436721802</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>1.422615766525269</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1124,13 +1238,13 @@
         <v>45663</v>
       </c>
       <c r="B24" t="n">
-        <v>1.43041205406189</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>1.432321786880493</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>1.387603163719177</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1138,13 +1252,13 @@
         <v>45670</v>
       </c>
       <c r="B25" t="n">
-        <v>1.430816054344177</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>1.433813691139221</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>1.381971478462219</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1152,13 +1266,13 @@
         <v>45677</v>
       </c>
       <c r="B26" t="n">
-        <v>1.364751100540161</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>1.397512078285217</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>1.371948003768921</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1166,13 +1280,13 @@
         <v>45684</v>
       </c>
       <c r="B27" t="n">
-        <v>1.419710516929626</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>1.439442276954651</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>1.379173755645752</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1180,13 +1294,13 @@
         <v>45691</v>
       </c>
       <c r="B28" t="n">
-        <v>1.400453805923462</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>1.415239691734314</v>
+        <v>-1</v>
       </c>
       <c r="D28" t="n">
-        <v>1.400419473648071</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
